--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5724788666850046</v>
+        <v>0.6712789683070062</v>
       </c>
       <c r="D2">
-        <v>0.5670742452524711</v>
+        <v>0.5090304226709601</v>
       </c>
       <c r="E2">
         <v>0.5492901905629934</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.6859342801134151</v>
+        <v>0.7408175863929127</v>
       </c>
       <c r="D3">
-        <v>0.4928492545209786</v>
+        <v>0.4666381540943689</v>
       </c>
       <c r="E3">
         <v>0.5492901905629934</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.8917875766181481</v>
+        <v>0.8101593474220016</v>
       </c>
       <c r="D4">
-        <v>0.3726345842003242</v>
+        <v>0.4265256190582978</v>
       </c>
       <c r="E4">
         <v>0.5492901905629934</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.04491342738359393</v>
+        <v>-0.04449207906000651</v>
       </c>
       <c r="D5">
-        <v>0.9641816549903297</v>
+        <v>0.9649135426589905</v>
       </c>
       <c r="E5">
         <v>0.5492901905629934</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.09804348772253203</v>
+        <v>0.0870727984777056</v>
       </c>
       <c r="D6">
-        <v>0.9219094640971579</v>
+        <v>0.9314013241124666</v>
       </c>
       <c r="E6">
         <v>0.5400774818744279</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.2979390614803749</v>
+        <v>0.2545483706006483</v>
       </c>
       <c r="D7">
-        <v>0.7657865365100842</v>
+        <v>0.8014361943774171</v>
       </c>
       <c r="E7">
         <v>0.5400774818744279</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.6255900326026941</v>
+        <v>-0.5317481000201038</v>
       </c>
       <c r="D8">
-        <v>0.531668900094372</v>
+        <v>0.6002294224763838</v>
       </c>
       <c r="E8">
         <v>0.5400774818744279</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.2149004011924925</v>
+        <v>0.2152225572789606</v>
       </c>
       <c r="D9">
-        <v>0.8298710703867895</v>
+        <v>0.8315765101758759</v>
       </c>
       <c r="E9">
         <v>0.5383797329592813</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.7367661773677561</v>
+        <v>-0.6597251512177</v>
       </c>
       <c r="D10">
-        <v>0.4613674871746916</v>
+        <v>0.5162778690317205</v>
       </c>
       <c r="E10">
         <v>0.5383797329592813</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.9795803276360331</v>
+        <v>-0.7853407250842371</v>
       </c>
       <c r="D11">
-        <v>0.3274344427258462</v>
+        <v>0.4406300627594613</v>
       </c>
       <c r="E11">
         <v>0.534546335683161</v>
